--- a/doc/nodejs端接口文档.xlsx
+++ b/doc/nodejs端接口文档.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmachc/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmachc/GitHub/manageSystem/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>读取身份证信息</t>
     <rPh sb="0" eb="1">
@@ -446,6 +446,49 @@
       <t>cha'r</t>
     </rPh>
     <rPh sb="7" eb="8">
+      <t>xin'shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置用户图片</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tu'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path/user/setUserPicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户正面照图片</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入新数据：</t>
+    <rPh sb="0" eb="1">
+      <t>cha'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>xin'shu'ju</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,83 +672,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,477 +1050,581 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="28"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="28"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="28"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="28"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="28"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="29"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="23">
         <v>2</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="28"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="28"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="28"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="A20" s="23">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="23" t="s">
+      <c r="I20" s="13"/>
+      <c r="J20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="28"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="28"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="28"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="29"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>4</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="20">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="K25:K29"/>
     <mergeCell ref="J15:J19"/>
     <mergeCell ref="K2:K14"/>
     <mergeCell ref="K15:K19"/>

--- a/doc/nodejs端接口文档.xlsx
+++ b/doc/nodejs端接口文档.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmachc/GitHub/manageSystem/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="1460" windowWidth="27740" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -374,8 +369,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查找是否有重复的：
-插入新用户：</t>
+    <t>设置用户图片</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tu'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path/user/setUserPicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户正面照图片</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找是否有重复的：SELECT uid FROM db_ars.tbl_user where id_card = 'xxxxxxxxx';
+插入新用户：insert into db_ars.tbl_user (email, mobile, passwd, real_name, sex, created_at, role)
+ value('xxx@qq.com', '1501024xxxx', '$2y$13$ed0EEGv99qX25w0JgDhsg.EEtpYMgY/W0cQ3oUTvJIyfAUsNjoysi', '张三', 1, ‘当前时间戳’, 1);</t>
     <rPh sb="0" eb="1">
       <t>cha'zhao</t>
     </rPh>
@@ -391,20 +420,23 @@
     <rPh sb="7" eb="8">
       <t>d</t>
     </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="71" eb="72">
       <t>cha'r</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="73" eb="74">
       <t>xin</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="74" eb="75">
       <t>yong'hu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查找最新一条数据：
-插入新数据（多条）：</t>
+    <t>查找最新一条数据：SELECT 
+    *
+FROM
+    db_ars.tbl_attendance order by aid desc limit 1;
+插入新数据（多条）：INSERT INTO `db_ars`.`tbl_attendance` (`uid`,`type`,`date`,`created_at`) VALUES(1,1,1514736000,1521646049),(2,2,1514736000,1521646049),(3,1,1514736000,1521646049);</t>
     <rPh sb="0" eb="1">
       <t>cha'zhao</t>
     </rPh>
@@ -417,22 +449,22 @@
     <rPh sb="6" eb="7">
       <t>shu'ju</t>
     </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="82" eb="83">
       <t>cha'ru</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="84" eb="85">
       <t>xin</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="85" eb="86">
       <t>shu'ju</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="88" eb="89">
       <t>duo'tiao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若非员工，插入新数据：</t>
+    <t>若非员工，插入新数据：???</t>
     <rPh sb="0" eb="1">
       <t>ruo</t>
     </rPh>
@@ -451,40 +483,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置用户图片</t>
-    <rPh sb="0" eb="1">
-      <t>she'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tu'p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path/user/setUserPicture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户正面照图片</t>
-    <rPh sb="0" eb="1">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zheng'mian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tu'p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入新数据：</t>
+    <t xml:space="preserve">插入新数据：UPDATE `db_ars`.`tbl_user` SET `fingerprint`='xxx' WHERE `uid`='1';这个应该是更新吧？先保存好身份证信息，更新头像信息吧！不过现在好像少照片字段
+</t>
     <rPh sb="0" eb="1">
       <t>cha'r</t>
     </rPh>
@@ -714,6 +714,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -726,15 +735,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -752,7 +752,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -807,7 +807,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -842,7 +842,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1019,7 +1019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1029,27 +1029,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="21.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2"/>
+    <col min="9" max="9" width="21.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -1084,14 +1084,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="32" customHeight="1">
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1111,14 +1111,14 @@
       <c r="J2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="29"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="8"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1132,12 +1132,12 @@
         <v>17</v>
       </c>
       <c r="J3" s="26"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="29"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1151,12 +1151,12 @@
         <v>18</v>
       </c>
       <c r="J4" s="26"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="29"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="10"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1170,12 +1170,12 @@
         <v>26</v>
       </c>
       <c r="J5" s="26"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="29"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1189,12 +1189,12 @@
         <v>27</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="29"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1208,12 +1208,12 @@
         <v>28</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="29"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="10"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1227,12 +1227,12 @@
         <v>29</v>
       </c>
       <c r="J8" s="26"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="29"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1246,12 +1246,12 @@
         <v>30</v>
       </c>
       <c r="J9" s="26"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="29"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1265,12 +1265,12 @@
         <v>31</v>
       </c>
       <c r="J10" s="26"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="17" customHeight="1">
       <c r="A11" s="29"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1284,12 +1284,12 @@
         <v>32</v>
       </c>
       <c r="J11" s="26"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="29"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="10"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1303,12 +1303,12 @@
         <v>35</v>
       </c>
       <c r="J12" s="27"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="29"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1316,12 +1316,12 @@
       <c r="H13" s="7"/>
       <c r="I13" s="17"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="30"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1329,16 +1329,16 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" ht="26">
+      <c r="A15" s="19">
         <v>2</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1355,17 +1355,17 @@
       <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="K15" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1378,13 +1378,13 @@
       <c r="I16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1397,43 +1397,43 @@
       <c r="I17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="J19" s="22"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="19">
         <v>3</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1452,17 +1452,17 @@
         <v>10</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="K20" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -1473,13 +1473,13 @@
         <v>16</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -1490,44 +1490,44 @@
         <v>14</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="10"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
+      <c r="J24" s="22"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="19">
         <v>4</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>50</v>
+      <c r="B25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>43</v>
@@ -1536,7 +1536,7 @@
         <v>44</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>9</v>
@@ -1545,17 +1545,17 @@
         <v>10</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+    <row r="26" spans="1:11">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="10" t="s">
         <v>34</v>
       </c>
@@ -1572,13 +1572,13 @@
         <v>16</v>
       </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1589,42 +1589,37 @@
         <v>14</v>
       </c>
       <c r="I27" s="9"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="K25:K29"/>
     <mergeCell ref="J15:J19"/>
     <mergeCell ref="K2:K14"/>
     <mergeCell ref="K15:K19"/>
@@ -1640,8 +1635,18 @@
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="B2:B14"/>
     <mergeCell ref="C2:C14"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="K25:K29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/nodejs端接口文档.xlsx
+++ b/doc/nodejs端接口文档.xlsx
@@ -464,7 +464,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若非员工，插入新数据：???</t>
+    <t xml:space="preserve">插入新数据：UPDATE `db_ars`.`tbl_user` SET `fingerprint`='xxx' WHERE `uid`='1';这个应该是更新吧？先保存好身份证信息，更新头像信息吧！不过现在好像少照片字段
+</t>
+    <rPh sb="0" eb="1">
+      <t>cha'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">若非员工，插入新数据：INSERT INTO `db_ars`.`tbl_guests` (`created_at`, `uuid`, `image`, `status`) VALUES ( '1521725598', '111111', 'http://xxxx.xxx.xxx/xxxxxxx', '0');
+</t>
     <rPh sb="0" eb="1">
       <t>ruo</t>
     </rPh>
@@ -478,17 +490,6 @@
       <t>cha'r</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>xin'shu'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">插入新数据：UPDATE `db_ars`.`tbl_user` SET `fingerprint`='xxx' WHERE `uid`='1';这个应该是更新吧？先保存好身份证信息，更新头像信息吧！不过现在好像少照片字段
-</t>
-    <rPh sb="0" eb="1">
-      <t>cha'r</t>
-    </rPh>
-    <rPh sb="2" eb="3">
       <t>xin'shu'ju</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -714,6 +715,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -722,18 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1019,7 +1020,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1030,7 +1031,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1088,10 +1089,10 @@
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1111,14 +1112,14 @@
       <c r="J2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="29"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="8"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1132,12 +1133,12 @@
         <v>17</v>
       </c>
       <c r="J3" s="26"/>
-      <c r="K3" s="24"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="29"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1151,12 +1152,12 @@
         <v>18</v>
       </c>
       <c r="J4" s="26"/>
-      <c r="K4" s="24"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="29"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="10"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1170,12 +1171,12 @@
         <v>26</v>
       </c>
       <c r="J5" s="26"/>
-      <c r="K5" s="24"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="29"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1189,12 +1190,12 @@
         <v>27</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="24"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="29"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1208,12 +1209,12 @@
         <v>28</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="24"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="29"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="10"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1227,12 +1228,12 @@
         <v>29</v>
       </c>
       <c r="J8" s="26"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="29"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1246,12 +1247,12 @@
         <v>30</v>
       </c>
       <c r="J9" s="26"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="29"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1265,12 +1266,12 @@
         <v>31</v>
       </c>
       <c r="J10" s="26"/>
-      <c r="K10" s="24"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="17" customHeight="1">
       <c r="A11" s="29"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1284,12 +1285,12 @@
         <v>32</v>
       </c>
       <c r="J11" s="26"/>
-      <c r="K11" s="24"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="29"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="10"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1303,12 +1304,12 @@
         <v>35</v>
       </c>
       <c r="J12" s="27"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="29"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1316,12 +1317,12 @@
       <c r="H13" s="7"/>
       <c r="I13" s="17"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="30"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1329,16 +1330,16 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="25"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="26">
-      <c r="A15" s="19">
+      <c r="A15" s="23">
         <v>2</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1355,17 +1356,17 @@
       <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1378,13 +1379,13 @@
       <c r="I16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1397,43 +1398,43 @@
       <c r="I17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="24"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="19">
+      <c r="A20" s="23">
         <v>3</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1452,17 +1453,17 @@
         <v>10</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="23" t="s">
-        <v>51</v>
+      <c r="K20" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -1473,13 +1474,13 @@
         <v>16</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="24"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -1490,43 +1491,43 @@
         <v>14</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="10"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="24"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="25"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="19">
+      <c r="A25" s="23">
         <v>4</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="23" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="16" t="s">
@@ -1545,17 +1546,17 @@
         <v>10</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="23" t="s">
-        <v>52</v>
+      <c r="K25" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="10" t="s">
         <v>34</v>
       </c>
@@ -1572,13 +1573,13 @@
         <v>16</v>
       </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="24"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1589,37 +1590,42 @@
         <v>14</v>
       </c>
       <c r="I27" s="9"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="24"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="24"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="25"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="K25:K29"/>
     <mergeCell ref="J15:J19"/>
     <mergeCell ref="K2:K14"/>
     <mergeCell ref="K15:K19"/>
@@ -1635,11 +1641,6 @@
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="B2:B14"/>
     <mergeCell ref="C2:C14"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="K25:K29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/nodejs端接口文档.xlsx
+++ b/doc/nodejs端接口文档.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmachc/GitHub/manageSystem/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="18360" yWindow="1420" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>读取身份证信息</t>
     <rPh sb="0" eb="1">
@@ -491,6 +496,63 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>xin'shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path/user/addUserToAttMac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码（暂时为空）</t>
+    <rPh sb="0" eb="1">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zan'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>we</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privilege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <rPh sb="0" eb="1">
+      <t>quan'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <rPh sb="0" eb="1">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'y</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,6 +777,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -727,15 +798,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -753,7 +815,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1020,7 +1082,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1028,29 +1090,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2"/>
-    <col min="9" max="9" width="21.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="2"/>
+    <col min="5" max="5" width="10.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="21.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -1085,14 +1147,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="32" customHeight="1">
+    <row r="2" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1112,14 +1174,14 @@
       <c r="J2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="8"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1133,12 +1195,12 @@
         <v>17</v>
       </c>
       <c r="J3" s="26"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1152,12 +1214,12 @@
         <v>18</v>
       </c>
       <c r="J4" s="26"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="10"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1171,12 +1233,12 @@
         <v>26</v>
       </c>
       <c r="J5" s="26"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1190,12 +1252,12 @@
         <v>27</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1209,12 +1271,12 @@
         <v>28</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="10"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1228,12 +1290,12 @@
         <v>29</v>
       </c>
       <c r="J8" s="26"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1247,12 +1309,12 @@
         <v>30</v>
       </c>
       <c r="J9" s="26"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1266,12 +1328,12 @@
         <v>31</v>
       </c>
       <c r="J10" s="26"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="17" customHeight="1">
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1285,12 +1347,12 @@
         <v>32</v>
       </c>
       <c r="J11" s="26"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="10"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1304,12 +1366,12 @@
         <v>35</v>
       </c>
       <c r="J12" s="27"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1317,12 +1379,12 @@
       <c r="H13" s="7"/>
       <c r="I13" s="17"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="30"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1330,16 +1392,16 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" ht="26">
-      <c r="A15" s="23">
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
         <v>2</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1356,17 +1418,17 @@
       <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1379,13 +1441,13 @@
       <c r="I16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1398,43 +1460,43 @@
       <c r="I17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="23">
+      <c r="J19" s="22"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
         <v>3</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1453,17 +1515,17 @@
         <v>10</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -1474,13 +1536,13 @@
         <v>16</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -1491,43 +1553,43 @@
         <v>14</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="10"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="23">
+      <c r="J24" s="22"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="19">
         <v>4</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="16" t="s">
@@ -1546,17 +1608,17 @@
         <v>10</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="10" t="s">
         <v>34</v>
       </c>
@@ -1573,13 +1635,13 @@
         <v>16</v>
       </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1590,42 +1652,196 @@
         <v>14</v>
       </c>
       <c r="I27" s="9"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="19">
+        <v>5</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="K25:K29"/>
+  <mergeCells count="25">
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="J30:J37"/>
+    <mergeCell ref="K30:K37"/>
     <mergeCell ref="J15:J19"/>
     <mergeCell ref="K2:K14"/>
     <mergeCell ref="K15:K19"/>
@@ -1641,13 +1857,13 @@
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="B2:B14"/>
     <mergeCell ref="C2:C14"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="K25:K29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>